--- a/src/main/resources/Backtesting.xlsx
+++ b/src/main/resources/Backtesting.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPrizio\IdeaProjects\bluebell\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2D2FDC-6685-4D5D-9956-5F26CC109047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBB8FD6-D74A-4D9C-BA9D-36D2C4F311AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E258FCD5-B2C9-43D2-863F-B9659CD81F11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E258FCD5-B2C9-43D2-863F-B9659CD81F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="7" r:id="rId1"/>
     <sheet name="Bloom (Normalized)" sheetId="8" r:id="rId2"/>
+    <sheet name="Bloom (Absolute)" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,12 +128,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,9 +181,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -191,11 +190,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,55 +557,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="18">
+      <c r="A1" s="21">
         <v>2024</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20">
+      <c r="B1" s="21"/>
+      <c r="C1" s="19">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="19">
         <v>0.40277777777777801</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="19">
         <v>0.40625</v>
       </c>
-      <c r="G1" s="20">
+      <c r="G1" s="19">
         <v>0.40972222222222199</v>
       </c>
-      <c r="H1" s="20">
+      <c r="H1" s="19">
         <v>0.41319444444444497</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="19">
         <v>0.41666666666666702</v>
       </c>
       <c r="J1" s="11"/>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20">
+      <c r="M1" s="20"/>
+      <c r="N1" s="19">
         <v>0.39583333333333331</v>
       </c>
-      <c r="O1" s="20">
+      <c r="O1" s="19">
         <v>0.39930555555555558</v>
       </c>
-      <c r="P1" s="20">
+      <c r="P1" s="19">
         <v>0.40277777777777801</v>
       </c>
-      <c r="Q1" s="20">
+      <c r="Q1" s="19">
         <v>0.40625</v>
       </c>
-      <c r="R1" s="20">
+      <c r="R1" s="19">
         <v>0.40972222222222199</v>
       </c>
-      <c r="S1" s="20">
+      <c r="S1" s="19">
         <v>0.41319444444444497</v>
       </c>
-      <c r="T1" s="20">
+      <c r="T1" s="19">
         <v>0.41666666666666702</v>
       </c>
       <c r="U1" s="1"/>
@@ -605,25 +614,25 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="11"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="1"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3" t="s">
@@ -643,10 +652,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2">
         <v>104.08</v>
       </c>
@@ -669,10 +678,10 @@
         <v>113.01</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>0</v>
       </c>
-      <c r="M3" s="19"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2">
         <v>-119.26</v>
       </c>
@@ -715,8 +724,8 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="8">
         <f xml:space="preserve"> PRODUCT(C3,$W1)</f>
         <v>993.96400000000006</v>
@@ -746,8 +755,8 @@
         <v>1079.2455000000002</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="8">
         <f xml:space="preserve"> PRODUCT(N3,$W1)</f>
         <v>-1138.9330000000002</v>
@@ -797,8 +806,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="6">
         <v>0.68</v>
       </c>
@@ -824,8 +833,8 @@
         <f>AVERAGE(C5:I5)</f>
         <v>0.69142857142857139</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="6">
         <v>0.61</v>
       </c>
@@ -893,10 +902,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>0.05</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2">
         <v>-54.64</v>
       </c>
@@ -919,10 +928,10 @@
         <v>362.79</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <v>0.05</v>
       </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="2">
         <v>205.86</v>
       </c>
@@ -965,8 +974,8 @@
       </c>
     </row>
     <row r="8" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="8">
         <f xml:space="preserve"> PRODUCT(C7,$W1)</f>
         <v>-521.81200000000001</v>
@@ -996,8 +1005,8 @@
         <v>3464.6445000000003</v>
       </c>
       <c r="J8" s="12"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="8">
         <f xml:space="preserve"> PRODUCT(N7,$W1)</f>
         <v>1965.9630000000002</v>
@@ -1047,8 +1056,8 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="6">
         <v>0.66</v>
       </c>
@@ -1074,8 +1083,8 @@
         <f>AVERAGE(C9:I9)</f>
         <v>0.69142857142857139</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="7">
         <v>0.64</v>
       </c>
@@ -1150,10 +1159,10 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>0.1</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2">
         <v>28.62</v>
       </c>
@@ -1176,10 +1185,10 @@
         <v>502.63</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="L11" s="19">
+      <c r="L11" s="18">
         <v>0.1</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="2">
         <v>42.3</v>
       </c>
@@ -1222,8 +1231,8 @@
       </c>
     </row>
     <row r="12" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="8">
         <f xml:space="preserve"> PRODUCT(C11,$W1)</f>
         <v>273.32100000000003</v>
@@ -1253,8 +1262,8 @@
         <v>4800.1165000000001</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="8">
         <f xml:space="preserve"> PRODUCT(N11,$W1)</f>
         <v>403.96499999999997</v>
@@ -1304,8 +1313,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="6">
         <v>0.67</v>
       </c>
@@ -1331,8 +1340,8 @@
         <f>AVERAGE(C13:I13)</f>
         <v>0.68571428571428572</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="7">
         <v>0.62</v>
       </c>
@@ -1407,10 +1416,10 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>0.15</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2">
         <v>-1.73</v>
       </c>
@@ -1433,10 +1442,10 @@
         <v>254.89</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="L15" s="19">
+      <c r="L15" s="18">
         <v>0.15</v>
       </c>
-      <c r="M15" s="19"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="2">
         <v>101.65</v>
       </c>
@@ -1461,8 +1470,8 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="8">
         <f xml:space="preserve"> PRODUCT(C15,$W1)</f>
         <v>-16.5215</v>
@@ -1492,8 +1501,8 @@
         <v>2434.1995000000002</v>
       </c>
       <c r="J16" s="12"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="8">
         <f xml:space="preserve"> PRODUCT(N15,$W1)</f>
         <v>970.75750000000016</v>
@@ -1531,8 +1540,8 @@
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="6">
         <v>0.66</v>
       </c>
@@ -1558,8 +1567,8 @@
         <f>AVERAGE(C17:I17)</f>
         <v>0.68142857142857138</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="7">
         <v>0.63</v>
       </c>
@@ -1598,10 +1607,10 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>0.2</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2">
         <v>90.64</v>
       </c>
@@ -1624,10 +1633,10 @@
         <v>76.650000000000006</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <v>0.2</v>
       </c>
-      <c r="M19" s="19"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="2">
         <v>294.07</v>
       </c>
@@ -1652,8 +1661,8 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="8">
         <f xml:space="preserve"> PRODUCT(C19,$W1)</f>
         <v>865.61200000000008</v>
@@ -1683,8 +1692,8 @@
         <v>732.00750000000016</v>
       </c>
       <c r="J20" s="12"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="8">
         <f xml:space="preserve"> PRODUCT(N19, $W1)</f>
         <v>2808.3685</v>
@@ -1722,8 +1731,8 @@
       <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="6">
         <v>0.67</v>
       </c>
@@ -1749,8 +1758,8 @@
         <f>AVERAGE(C21:I21)</f>
         <v>0.68428571428571427</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="7">
         <v>0.65</v>
       </c>
@@ -1789,10 +1798,10 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>0.25</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2">
         <v>110.5</v>
       </c>
@@ -1815,10 +1824,10 @@
         <v>77.95</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="L23" s="19">
+      <c r="L23" s="18">
         <v>0.25</v>
       </c>
-      <c r="M23" s="19"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="2">
         <v>420.99</v>
       </c>
@@ -1843,8 +1852,8 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="8">
         <f xml:space="preserve"> PRODUCT(C23,$W1)</f>
         <v>1055.2750000000001</v>
@@ -1874,8 +1883,8 @@
         <v>744.42250000000013</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="8">
         <f>PRODUCT(N23, $W1)</f>
         <v>4020.4545000000003</v>
@@ -1913,8 +1922,8 @@
       <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="6">
         <v>0.67</v>
       </c>
@@ -1940,8 +1949,8 @@
         <f>AVERAGE(C25:I25)</f>
         <v>0.68285714285714272</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="7">
         <v>0.65</v>
       </c>
@@ -1970,20 +1979,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L11:M13"/>
-    <mergeCell ref="L15:M17"/>
-    <mergeCell ref="L19:M21"/>
-    <mergeCell ref="L23:M25"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="L3:M5"/>
-    <mergeCell ref="L7:M9"/>
-    <mergeCell ref="L1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A23:B25"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -1998,6 +1993,20 @@
     <mergeCell ref="A11:B13"/>
     <mergeCell ref="A15:B17"/>
     <mergeCell ref="A19:B21"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="L3:M5"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="L11:M13"/>
+    <mergeCell ref="L15:M17"/>
+    <mergeCell ref="L19:M21"/>
+    <mergeCell ref="L23:M25"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2005,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AFDBA8-4D92-4835-8526-21B855533299}">
-  <dimension ref="A2:AI26"/>
+  <dimension ref="A2:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2115,23 +2124,31 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="1">
+        <v>478.01</v>
+      </c>
       <c r="C3" s="1">
         <v>1253.75</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="1">
+        <v>243.08</v>
+      </c>
+      <c r="E3" s="1">
+        <v>617.34</v>
+      </c>
       <c r="F3" s="1">
         <v>1492.79</v>
       </c>
       <c r="G3" s="1">
         <v>1457.12</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="J3" s="19">
+      <c r="H3" s="1">
+        <v>286.44</v>
+      </c>
+      <c r="J3" s="18">
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -2143,16 +2160,9 @@
       <c r="M3" s="1">
         <v>2585.34</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="S3" s="19">
+      <c r="S3" s="18">
         <v>0</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
       <c r="W3" s="1">
         <v>875.67</v>
       </c>
@@ -2162,14 +2172,9 @@
       <c r="Y3" s="1">
         <v>956.76</v>
       </c>
-      <c r="Z3" s="18"/>
-      <c r="AB3" s="19">
+      <c r="AB3" s="18">
         <v>0</v>
       </c>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
       <c r="AG3" s="1">
         <v>474.84</v>
       </c>
@@ -2181,21 +2186,29 @@
       </c>
     </row>
     <row r="4" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="14">
+        <v>4565</v>
+      </c>
       <c r="C4" s="14">
         <v>11973.31</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="14">
+        <v>2321.41</v>
+      </c>
+      <c r="E4" s="14">
+        <v>5895.6</v>
+      </c>
       <c r="F4" s="14">
         <v>14256.14</v>
       </c>
       <c r="G4" s="14">
         <v>13915.5</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="H4" s="14">
+        <v>2735.5</v>
+      </c>
+      <c r="J4" s="18"/>
       <c r="K4" s="14">
         <v>11034.93</v>
       </c>
@@ -2205,14 +2218,7 @@
       <c r="M4" s="14">
         <v>24690</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
+      <c r="S4" s="18"/>
       <c r="W4" s="14">
         <v>8362.65</v>
       </c>
@@ -2222,12 +2228,7 @@
       <c r="Y4" s="14">
         <v>9137.06</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
+      <c r="AB4" s="18"/>
       <c r="AG4" s="14">
         <v>4534.72</v>
       </c>
@@ -2239,21 +2240,29 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="1">
+        <v>-239.52</v>
+      </c>
       <c r="C5" s="1">
         <v>-48.63</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="1">
+        <v>-231.64</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-353.97</v>
+      </c>
       <c r="F5" s="1">
         <v>-373.97</v>
       </c>
       <c r="G5" s="1">
         <v>-49.78</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="J5" s="19"/>
+      <c r="H5" s="1">
+        <v>-168.49</v>
+      </c>
+      <c r="J5" s="18"/>
       <c r="K5" s="1">
         <v>-32.07</v>
       </c>
@@ -2263,14 +2272,7 @@
       <c r="M5" s="1">
         <v>-35.18</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
+      <c r="S5" s="18"/>
       <c r="W5" s="1">
         <v>-229.22</v>
       </c>
@@ -2280,12 +2282,7 @@
       <c r="Y5" s="1">
         <v>-119.93</v>
       </c>
-      <c r="Z5" s="18"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
+      <c r="AB5" s="18"/>
       <c r="AG5" s="1">
         <v>-124.32</v>
       </c>
@@ -2297,1314 +2294,2671 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="23">
+        <f>ABS(B5 / B3)</f>
+        <v>0.50107738331834062</v>
+      </c>
+      <c r="C6" s="23">
+        <f>ABS(C5 / C3)</f>
+        <v>3.8787637088733798E-2</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" ref="D6:H6" si="0">ABS(D5 / D3)</f>
+        <v>0.95293730459108106</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.57337933715618628</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25051748738938501</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="0"/>
+        <v>3.4163280992643028E-2</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.58822091886608019</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="AB6" s="18"/>
+    </row>
+    <row r="7" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="W7" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AG7" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1280.56</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1652.63</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1460.79</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1350.51</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2817.06</v>
+      </c>
+      <c r="O8" s="1">
+        <v>942.07</v>
+      </c>
+      <c r="S8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="U8" s="1">
+        <v>764.68</v>
+      </c>
+      <c r="W8" s="1">
+        <v>917.58</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>709.35</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>288.24</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>826.08</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>453.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="C9" s="14">
+        <v>12229.35</v>
+      </c>
+      <c r="F9" s="14">
+        <v>15782.62</v>
+      </c>
+      <c r="G9" s="14">
+        <v>13950.54</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="14">
+        <v>12897.37</v>
+      </c>
+      <c r="M9" s="14">
+        <v>26902.92</v>
+      </c>
+      <c r="O9" s="14">
+        <v>8996.77</v>
+      </c>
+      <c r="S9" s="18"/>
+      <c r="U9" s="14">
+        <v>7302.69</v>
+      </c>
+      <c r="W9" s="14">
+        <v>8762.89</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>6774.29</v>
+      </c>
+      <c r="AB9" s="18"/>
+      <c r="AF9" s="14">
+        <v>2752.69</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>7889.06</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>4334.3599999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="C10" s="1">
+        <v>-51.1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-342.77</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-53.56</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="1">
+        <v>-60376</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-36.94</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-151</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="U10" s="1">
+        <v>-408.99</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-169.49</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-121.83</v>
+      </c>
+      <c r="AB10" s="18"/>
+      <c r="AF10" s="1">
+        <v>-75.88</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>-130.52000000000001</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>-206.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="AB11" s="18"/>
+    </row>
+    <row r="12" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="C12" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="S12" s="18"/>
+      <c r="U12" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="AB12" s="18"/>
+      <c r="AF12" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1551.68</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1632.29</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1370.48</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1176.74</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2378.67</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1176.74</v>
+      </c>
+      <c r="S13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>962.2</v>
+      </c>
+      <c r="W13" s="1">
+        <v>719.33</v>
+      </c>
+      <c r="X13" s="1">
+        <v>903.31</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>562.15</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>948.71</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>512.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="C14" s="14">
+        <v>14818.54</v>
+      </c>
+      <c r="F14" s="14">
+        <v>15588.37</v>
+      </c>
+      <c r="G14" s="14">
+        <v>13088.08</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="14">
+        <v>10260.709999999999</v>
+      </c>
+      <c r="M14" s="14">
+        <v>22716.3</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>11237.87</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="U14" s="14">
+        <v>9189.01</v>
+      </c>
+      <c r="W14" s="14">
+        <v>6869.6</v>
+      </c>
+      <c r="X14" s="14">
+        <v>8626.61</v>
+      </c>
+      <c r="AB14" s="18"/>
+      <c r="AF14" s="14">
+        <v>5368.53</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>9060.18</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>4891.8900000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="C15" s="1">
+        <v>-53.48</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-441.31</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-116.95</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="1">
+        <v>-112.68</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-46.68</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-35.28</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="U15" s="1">
+        <v>-415.45</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-203.1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>-193.17</v>
+      </c>
+      <c r="AB15" s="18"/>
+      <c r="AF15" s="1">
+        <v>-28.62</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>-136.72</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>-132.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="AB16" s="18"/>
+    </row>
+    <row r="17" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="C17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="S17" s="18"/>
+      <c r="U17" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AB17" s="18"/>
+      <c r="AF17" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1490.42</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1934.67</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1022.76</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="K18" s="1">
+        <v>861.9</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1520.27</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1620.46</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="U18" s="1">
+        <v>870.58</v>
+      </c>
+      <c r="V18" s="1">
+        <v>571.79999999999995</v>
+      </c>
+      <c r="X18" s="1">
+        <v>822.34</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>859.7</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>625.97</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>533.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="C19" s="14">
+        <v>14233.51</v>
+      </c>
+      <c r="F19" s="14">
+        <v>18476.099999999999</v>
+      </c>
+      <c r="G19" s="14">
+        <v>9767.36</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="14">
+        <v>8231.14</v>
+      </c>
+      <c r="M19" s="14">
+        <v>14518.58</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>15475.39</v>
+      </c>
+      <c r="S19" s="18"/>
+      <c r="U19" s="14">
+        <v>8314.0400000000009</v>
+      </c>
+      <c r="V19" s="14">
+        <v>5460.69</v>
+      </c>
+      <c r="X19" s="14">
+        <v>7853.35</v>
+      </c>
+      <c r="AB19" s="18"/>
+      <c r="AF19" s="14">
+        <v>8210.14</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>5978.08</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>5095.3100000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="C20" s="1">
+        <v>-66.349999999999994</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-462.85</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-208.26</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="1">
+        <v>-117.8</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-48.8</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>-157.13999999999999</v>
+      </c>
+      <c r="S20" s="18"/>
+      <c r="U20" s="1">
+        <v>-534.66</v>
+      </c>
+      <c r="V20" s="1">
+        <v>-236.94</v>
+      </c>
+      <c r="X20" s="1">
+        <v>-115.26</v>
+      </c>
+      <c r="AB20" s="18"/>
+      <c r="AF20" s="1">
+        <v>-29.92</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>-144</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>-47.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="AB21" s="18"/>
+    </row>
+    <row r="22" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="C22" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="S22" s="18"/>
+      <c r="U22" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="AB22" s="18"/>
+      <c r="AF22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1523.82</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1848.99</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1339.53</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1279.77</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1564.43</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1729.1</v>
+      </c>
+      <c r="S23" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1085.0999999999999</v>
+      </c>
+      <c r="V23" s="1">
+        <v>686.26</v>
+      </c>
+      <c r="X23" s="1">
+        <v>850.86</v>
+      </c>
+      <c r="AB23" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>1064.54</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>555.48</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>554.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="C24" s="14">
+        <v>14552.48</v>
+      </c>
+      <c r="F24" s="14">
+        <v>17657.849999999999</v>
+      </c>
+      <c r="G24" s="14">
+        <v>12792.51</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="L24" s="14">
+        <v>12221.8</v>
+      </c>
+      <c r="M24" s="14">
+        <v>14940.31</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>16512.900000000001</v>
+      </c>
+      <c r="S24" s="18"/>
+      <c r="U24" s="14">
+        <v>10362.700000000001</v>
+      </c>
+      <c r="V24" s="14">
+        <v>6553.78</v>
+      </c>
+      <c r="X24" s="14">
+        <v>8125.71</v>
+      </c>
+      <c r="AB24" s="18"/>
+      <c r="AF24" s="14">
+        <v>10166.36</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>5304.83</v>
+      </c>
+      <c r="AI24" s="14">
+        <v>5298.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="C25" s="1">
+        <v>-69.17</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-423.21</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-146.68</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="L25" s="1">
+        <v>-6.22</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-55.84</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-163.84</v>
+      </c>
+      <c r="S25" s="18"/>
+      <c r="U25" s="1">
+        <v>-543.48</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-156.74</v>
+      </c>
+      <c r="X25" s="1">
+        <v>-210.62</v>
+      </c>
+      <c r="AB25" s="18"/>
+      <c r="AF25" s="1">
+        <v>-31.22</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>-244.43</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>-49.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="AB26" s="18"/>
+    </row>
+    <row r="27" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="C27" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="L27" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="S27" s="18"/>
+      <c r="U27" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="AB27" s="18"/>
+      <c r="AF27" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1751.54</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1903.44</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1640.42</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="L28" s="1">
+        <v>964.45</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1587.95</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2170.75</v>
+      </c>
+      <c r="S28" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1218.7</v>
+      </c>
+      <c r="V28" s="1">
+        <v>967.71</v>
+      </c>
+      <c r="X28" s="1">
+        <v>650.69000000000005</v>
+      </c>
+      <c r="AB28" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>477.83</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>1258.52</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>635.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="C29" s="14">
+        <v>16727.21</v>
+      </c>
+      <c r="F29" s="14">
+        <v>18177.849999999999</v>
+      </c>
+      <c r="G29" s="14">
+        <v>15666.01</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="L29" s="14">
+        <v>9210.5</v>
+      </c>
+      <c r="M29" s="14">
+        <v>15164.92</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>20730.66</v>
+      </c>
+      <c r="S29" s="18"/>
+      <c r="U29" s="14">
+        <v>11638.58</v>
+      </c>
+      <c r="V29" s="14">
+        <v>9241.6299999999992</v>
+      </c>
+      <c r="X29" s="14">
+        <v>6214.09</v>
+      </c>
+      <c r="AB29" s="18"/>
+      <c r="AE29" s="14">
+        <v>4563.28</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>12018.87</v>
+      </c>
+      <c r="AG29" s="14">
+        <v>6065.49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="C30" s="1">
+        <v>-72.099999999999994</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-442.27</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-152.84</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="L30" s="1">
+        <v>-328.87</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-200.6</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-49.26</v>
+      </c>
+      <c r="S30" s="18"/>
+      <c r="U30" s="1">
+        <v>-509.63</v>
+      </c>
+      <c r="V30" s="1">
+        <v>-182.55</v>
+      </c>
+      <c r="X30" s="1">
+        <v>-219.53</v>
+      </c>
+      <c r="AB30" s="18"/>
+      <c r="AE30" s="1">
+        <v>-206.79</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>-293.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AF31" s="4"/>
+    </row>
+    <row r="32" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="C32" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="L32" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="S32" s="18"/>
+      <c r="U32" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="AB32" s="18"/>
+      <c r="AE32" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>-32.520000000000003</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="S28:S32"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="S8:S12"/>
+    <mergeCell ref="S13:S17"/>
+    <mergeCell ref="S18:S22"/>
+    <mergeCell ref="S23:S27"/>
+    <mergeCell ref="AB3:AB7"/>
+    <mergeCell ref="AB8:AB12"/>
+    <mergeCell ref="AB13:AB17"/>
+    <mergeCell ref="AB18:AB22"/>
+    <mergeCell ref="AB23:AB27"/>
+    <mergeCell ref="AB28:AB32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD702ED-C194-4069-B24B-23B07381B39D}">
+  <dimension ref="A2:AI26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.41319444444444497</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.41319444444444497</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="U2" s="11">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="V2" s="11">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="W2" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="X2" s="11">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>0.41319444444444497</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>0.41319444444444497</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="1">
+        <v>978</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="1">
+        <v>1170.17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>860.11</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>701.86</v>
+      </c>
+      <c r="L3" s="1">
+        <v>807.39</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1968.22</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="1">
+        <v>701.86</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>962.32</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="1">
+        <v>836.8</v>
+      </c>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="1">
+        <v>1150.5999999999999</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="1">
+        <v>338.26</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>316.82</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>307.70999999999998</v>
+      </c>
+      <c r="AI3" s="21"/>
+    </row>
+    <row r="4" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="14">
+        <v>9339.9</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="14">
+        <v>11175.12</v>
+      </c>
+      <c r="G4" s="14">
+        <v>9214.0499999999993</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="14">
+        <v>6702.76</v>
+      </c>
+      <c r="L4" s="14">
+        <v>7710.57</v>
+      </c>
+      <c r="M4" s="14">
+        <v>18796.5</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="1">
+        <v>6702.76</v>
+      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="1">
+        <v>9190.16</v>
+      </c>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="14">
+        <v>7991.44</v>
+      </c>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="1">
+        <v>10988.23</v>
+      </c>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="1">
+        <v>3230.38</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>3025.63</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>2938.63</v>
+      </c>
+      <c r="AI4" s="21"/>
+    </row>
+    <row r="5" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="1">
+        <v>-96.44</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="1">
+        <v>-361.65</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-120.55</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="1">
+        <v>-35.18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-35.18</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-35.18</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="1">
+        <v>-140.75</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="1">
+        <v>-292.88</v>
+      </c>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="1">
+        <v>-104.6</v>
+      </c>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="1">
+        <v>-20.92</v>
+      </c>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="1">
+        <v>-26.02</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-208.16</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>-104.08</v>
+      </c>
+      <c r="AI5" s="21"/>
+    </row>
+    <row r="6" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+        <v>0.71</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="4">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="G6" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="J6" s="19"/>
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="4">
         <v>0.69</v>
       </c>
       <c r="L6" s="4">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="M6" s="4">
         <v>0.74</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
       <c r="W6" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="Z6" s="18"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
+        <v>0.72</v>
+      </c>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="4">
+        <v>0.71</v>
+      </c>
       <c r="AG6" s="4">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="AH6" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0.66</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="AI6" s="21"/>
     </row>
     <row r="7" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>0.05</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="1">
-        <v>1280.56</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+        <v>942.33</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="1">
-        <v>1652.63</v>
+        <v>1046.69</v>
       </c>
       <c r="G7" s="1">
-        <v>1460.79</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="J7" s="19">
+        <v>957.28</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="J7" s="18">
         <v>0.05</v>
       </c>
       <c r="K7" s="1">
-        <v>1350.51</v>
-      </c>
-      <c r="L7" s="18"/>
+        <v>1401.92</v>
+      </c>
+      <c r="L7" s="21"/>
       <c r="M7" s="1">
-        <v>2817.06</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="1">
-        <v>942.07</v>
-      </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="S7" s="19">
+        <v>2288.4</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1180.3</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="S7" s="18">
         <v>0.05</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="1">
-        <v>764.68</v>
-      </c>
-      <c r="V7" s="18"/>
+      <c r="T7" s="1">
+        <v>1008.8</v>
+      </c>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
       <c r="W7" s="1">
-        <v>917.58</v>
-      </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
+        <v>877</v>
+      </c>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="1">
+        <v>877</v>
+      </c>
       <c r="Z7" s="1">
-        <v>709.35</v>
-      </c>
-      <c r="AB7" s="19">
+        <v>1008.8</v>
+      </c>
+      <c r="AB7" s="18">
         <v>0.05</v>
       </c>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
       <c r="AF7" s="1">
-        <v>288.24</v>
+        <v>437.12</v>
       </c>
       <c r="AG7" s="1">
-        <v>826.08</v>
-      </c>
-      <c r="AH7" s="18"/>
+        <v>495.04</v>
+      </c>
+      <c r="AH7" s="21"/>
       <c r="AI7" s="1">
-        <v>453.86</v>
+        <v>362.79</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="14">
-        <v>12229.35</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+        <v>8999.25</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="14">
-        <v>15782.62</v>
+        <v>9995.89</v>
       </c>
       <c r="G8" s="14">
-        <v>13950.54</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="J8" s="19"/>
+        <v>9142.02</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="14">
-        <v>12897.37</v>
-      </c>
-      <c r="L8" s="18"/>
+        <v>13388.34</v>
+      </c>
+      <c r="L8" s="21"/>
       <c r="M8" s="14">
-        <v>26902.92</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="14">
-        <v>8996.77</v>
-      </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="14">
-        <v>7302.69</v>
-      </c>
-      <c r="V8" s="18"/>
+        <v>21854.22</v>
+      </c>
+      <c r="N8" s="14">
+        <v>11271.86</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="14">
+        <v>9634.0400000000009</v>
+      </c>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="14">
-        <v>8762.89</v>
-      </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
+        <v>8375.35</v>
+      </c>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="14">
+        <v>8375.35</v>
+      </c>
       <c r="Z8" s="14">
-        <v>6774.29</v>
-      </c>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
+        <v>9634.0400000000009</v>
+      </c>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
       <c r="AF8" s="14">
-        <v>2752.69</v>
+        <v>4174.5</v>
       </c>
       <c r="AG8" s="14">
-        <v>7889.06</v>
-      </c>
-      <c r="AH8" s="18"/>
+        <v>4727.63</v>
+      </c>
+      <c r="AH8" s="21"/>
       <c r="AI8" s="14">
-        <v>4334.3599999999997</v>
+        <v>3464.64</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="1">
-        <v>-51.1</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+        <v>-101.33</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="1">
-        <v>-342.77</v>
+        <v>-455.87</v>
       </c>
       <c r="G9" s="1">
-        <v>-53.56</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="J9" s="19"/>
+        <v>-101.33</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="1">
-        <v>-60376</v>
-      </c>
-      <c r="L9" s="18"/>
+        <v>-36.94</v>
+      </c>
+      <c r="L9" s="21"/>
       <c r="M9" s="1">
-        <v>-36.94</v>
-      </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="1">
-        <v>-151</v>
-      </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="1">
-        <v>-408.99</v>
-      </c>
-      <c r="V9" s="18"/>
+        <v>-0.01</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-406.52</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="1">
+        <v>-395.67</v>
+      </c>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
       <c r="W9" s="1">
-        <v>-169.49</v>
-      </c>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+        <v>-110.23</v>
+      </c>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="1">
+        <v>-21.97</v>
+      </c>
       <c r="Z9" s="1">
-        <v>-121.83</v>
-      </c>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
+        <v>-22.01</v>
+      </c>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
       <c r="AF9" s="1">
-        <v>-75.88</v>
+        <v>-163.92</v>
       </c>
       <c r="AG9" s="1">
-        <v>-130.52000000000001</v>
-      </c>
-      <c r="AH9" s="18"/>
+        <v>-218.56</v>
+      </c>
+      <c r="AH9" s="21"/>
       <c r="AI9" s="1">
-        <v>-206.89</v>
+        <v>-273.2</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+        <v>0.71</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="4">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="G10" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="J10" s="19"/>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="L10" s="18"/>
+        <v>0.72</v>
+      </c>
+      <c r="L10" s="21"/>
       <c r="M10" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="V10" s="18"/>
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
+        <v>0.72</v>
+      </c>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="4">
+        <v>0.72</v>
+      </c>
       <c r="Z10" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
+        <v>0.73</v>
+      </c>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
       <c r="AF10" s="4">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="AG10" s="4">
         <v>0.72</v>
       </c>
-      <c r="AH10" s="18"/>
+      <c r="AH10" s="21"/>
       <c r="AI10" s="4">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>0.1</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="1">
-        <v>1551.68</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+        <v>1138.49</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="1">
-        <v>1632.29</v>
+        <v>975.69</v>
       </c>
       <c r="G11" s="1">
-        <v>1370.48</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="J11" s="19">
+        <v>1069.6300000000001</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="J11" s="18">
         <v>0.1</v>
       </c>
       <c r="K11" s="1">
-        <v>1176.74</v>
-      </c>
-      <c r="L11" s="18"/>
+        <v>1350.92</v>
+      </c>
+      <c r="L11" s="21"/>
       <c r="M11" s="1">
-        <v>2378.67</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+        <v>2395.64</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="1">
-        <v>1176.74</v>
-      </c>
-      <c r="S11" s="19">
+        <v>1068.53</v>
+      </c>
+      <c r="S11" s="18">
         <v>0.1</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="1">
-        <v>962.2</v>
-      </c>
-      <c r="V11" s="18"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="1">
-        <v>719.33</v>
-      </c>
-      <c r="X11" s="1">
-        <v>903.31</v>
-      </c>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AB11" s="19">
+        <v>775.19</v>
+      </c>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="1">
+        <v>644.28</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>989.43</v>
+      </c>
+      <c r="AB11" s="18">
         <v>0.1</v>
       </c>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
       <c r="AF11" s="1">
-        <v>562.15</v>
+        <v>605.23</v>
       </c>
       <c r="AG11" s="1">
-        <v>948.71</v>
-      </c>
-      <c r="AH11" s="18"/>
+        <v>502.02</v>
+      </c>
+      <c r="AH11" s="21"/>
       <c r="AI11" s="1">
-        <v>512.24</v>
+        <v>502.63</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="14">
-        <v>14818.54</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+        <v>10872.58</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="14">
-        <v>15588.37</v>
+        <v>9317.84</v>
       </c>
       <c r="G12" s="14">
-        <v>13088.08</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="J12" s="19"/>
+        <v>10214.969999999999</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="14">
-        <v>10260.709999999999</v>
-      </c>
-      <c r="L12" s="18"/>
+        <v>12901.29</v>
+      </c>
+      <c r="L12" s="21"/>
       <c r="M12" s="14">
-        <v>22716.3</v>
-      </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+        <v>22878.36</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="14">
-        <v>11237.87</v>
-      </c>
-      <c r="S12" s="19"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="14">
-        <v>9189.01</v>
-      </c>
-      <c r="V12" s="18"/>
+        <v>10204.459999999999</v>
+      </c>
+      <c r="S12" s="18"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
       <c r="W12" s="14">
-        <v>6869.6</v>
-      </c>
-      <c r="X12" s="14">
-        <v>8626.61</v>
-      </c>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
+        <v>7403.06</v>
+      </c>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="1">
+        <v>6152.87</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>9449.06</v>
+      </c>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
       <c r="AF12" s="14">
-        <v>5368.53</v>
+        <v>5779.95</v>
       </c>
       <c r="AG12" s="14">
-        <v>9060.18</v>
-      </c>
-      <c r="AH12" s="18"/>
+        <v>4794.29</v>
+      </c>
+      <c r="AH12" s="21"/>
       <c r="AI12" s="14">
-        <v>4891.8900000000003</v>
+        <v>4800.12</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1">
-        <v>-53.48</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+        <v>-106.08</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="1">
-        <v>-441.31</v>
+        <v>-477.36</v>
       </c>
       <c r="G13" s="1">
-        <v>-116.95</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="J13" s="19"/>
+        <v>-82.3</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="1">
-        <v>-112.68</v>
-      </c>
-      <c r="L13" s="18"/>
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="L13" s="21"/>
       <c r="M13" s="1">
-        <v>-46.68</v>
-      </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+        <v>-0.02</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="1">
-        <v>-35.28</v>
-      </c>
-      <c r="S13" s="19"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="1">
-        <v>-415.45</v>
-      </c>
-      <c r="V13" s="18"/>
+        <v>-116.5</v>
+      </c>
+      <c r="S13" s="18"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
       <c r="W13" s="1">
-        <v>-203.1</v>
-      </c>
-      <c r="X13" s="1">
-        <v>-193.17</v>
-      </c>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
+        <v>-184.08</v>
+      </c>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="1">
+        <v>-23.01</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>-23.01</v>
+      </c>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
       <c r="AF13" s="1">
-        <v>-28.62</v>
+        <v>-85.86</v>
       </c>
       <c r="AG13" s="1">
-        <v>-136.72</v>
-      </c>
-      <c r="AH13" s="18"/>
+        <v>-228.96</v>
+      </c>
+      <c r="AH13" s="21"/>
       <c r="AI13" s="1">
-        <v>-132.51</v>
+        <v>-133.34</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+        <v>0.71</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="4">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="G14" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="J14" s="19"/>
+        <v>0.69</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="L14" s="18"/>
+        <v>0.71</v>
+      </c>
+      <c r="L14" s="21"/>
       <c r="M14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Z14" s="4">
         <v>0.72</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
       <c r="AF14" s="4">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="AG14" s="4">
         <v>0.72</v>
       </c>
-      <c r="AH14" s="18"/>
+      <c r="AH14" s="21"/>
       <c r="AI14" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="1">
+        <v>1265.8699999999999</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="1">
+        <v>1229.4000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>788.48</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="J15" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="1">
+        <v>1881.99</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1048.44</v>
+      </c>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="1">
+        <v>1690.68</v>
+      </c>
+      <c r="S15" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="1">
+        <v>694.77</v>
+      </c>
+      <c r="W15" s="1">
+        <v>758.24</v>
+      </c>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="1">
+        <v>881.4</v>
+      </c>
+      <c r="AB15" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="1">
+        <v>632.02</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>612.05999999999995</v>
+      </c>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="1">
+        <v>254.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="14">
+        <v>12089.06</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="14">
+        <v>11740.77</v>
+      </c>
+      <c r="G16" s="14">
+        <v>7529.98</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="14">
+        <v>17973</v>
+      </c>
+      <c r="N16" s="14">
+        <v>10012.6</v>
+      </c>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="14">
+        <v>16145.99</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="14">
+        <v>6635.05</v>
+      </c>
+      <c r="W16" s="14">
+        <v>7241.19</v>
+      </c>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="14">
+        <v>8417.3700000000008</v>
+      </c>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="14">
+        <v>6035.79</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>5845.17</v>
+      </c>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="14">
+        <v>2434.1999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="1">
+        <v>-110.97</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="1">
+        <v>-416.07</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-115.04</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="1">
+        <v>-40.46</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-566.78</v>
+      </c>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="1">
+        <v>-40.46</v>
+      </c>
+      <c r="S17" s="18"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="1">
+        <v>-168.42</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-192.48</v>
+      </c>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="1">
+        <v>-24.06</v>
+      </c>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="1">
+        <v>-89.62</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>-239.23</v>
+      </c>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="1">
+        <v>-229.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G18" s="4">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="1">
-        <v>1490.42</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="1">
-        <v>1934.67</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1022.76</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="J15" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="K15" s="1">
-        <v>861.9</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="1">
-        <v>1520.27</v>
-      </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="1">
-        <v>1620.46</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="1">
-        <v>870.58</v>
-      </c>
-      <c r="V15" s="1">
-        <v>571.79999999999995</v>
-      </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="1">
-        <v>822.34</v>
-      </c>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AB15" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="1">
-        <v>859.7</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>625.97</v>
-      </c>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="1">
-        <v>533.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14">
-        <v>14233.51</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="14">
-        <v>18476.099999999999</v>
-      </c>
-      <c r="G16" s="14">
-        <v>9767.36</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="14">
-        <v>8231.14</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="14">
-        <v>14518.58</v>
-      </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="14">
-        <v>15475.39</v>
-      </c>
-      <c r="S16" s="19"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="14">
-        <v>8314.0400000000009</v>
-      </c>
-      <c r="V16" s="14">
-        <v>5460.69</v>
-      </c>
-      <c r="W16" s="18"/>
-      <c r="X16" s="14">
-        <v>7853.35</v>
-      </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="14">
-        <v>8210.14</v>
-      </c>
-      <c r="AG16" s="14">
-        <v>5978.08</v>
-      </c>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="14">
-        <v>5095.3100000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="1">
-        <v>-66.349999999999994</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="1">
-        <v>-462.85</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-208.26</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="1">
-        <v>-117.8</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="1">
-        <v>-48.8</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="1">
-        <v>-157.13999999999999</v>
-      </c>
-      <c r="S17" s="19"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="1">
-        <v>-534.66</v>
-      </c>
-      <c r="V17" s="1">
-        <v>-236.94</v>
-      </c>
-      <c r="W17" s="18"/>
-      <c r="X17" s="1">
-        <v>-115.26</v>
-      </c>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="1">
-        <v>-29.92</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>-144</v>
-      </c>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="1">
-        <v>-47.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="4">
+      <c r="H18" s="21"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="1">
+        <v>1318.44</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="1">
+        <v>1027.22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1246.9100000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>929.45</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="J19" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="1">
+        <v>1834.55</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="1">
+        <v>1601.95</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1658.61</v>
+      </c>
+      <c r="S19" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="1">
+        <v>791.2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>860.01</v>
+      </c>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="1">
+        <v>834.65</v>
+      </c>
+      <c r="AB19" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="1">
+        <v>431.99</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>845.36</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>635.46</v>
+      </c>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+    </row>
+    <row r="20" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="14">
+        <v>12591.1</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="14">
+        <v>9809.9500000000007</v>
+      </c>
+      <c r="F20" s="14">
+        <v>11907.99</v>
+      </c>
+      <c r="G20" s="14">
+        <v>8876.25</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="14">
+        <v>17519.95</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="14">
+        <v>15298.62</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>15839.73</v>
+      </c>
+      <c r="S20" s="18"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="14">
+        <v>7555.96</v>
+      </c>
+      <c r="X20" s="14">
+        <v>8213.1</v>
+      </c>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="14">
+        <v>7970.91</v>
+      </c>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="14">
+        <v>4125.5</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>8073.19</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>6068.64</v>
+      </c>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+    </row>
+    <row r="21" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="1">
+        <v>-28.93</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="1">
+        <v>-289.81</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-402.98</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-115.72</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="1">
+        <v>-42.22</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="1">
+        <v>-42.22</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-42.22</v>
+      </c>
+      <c r="S21" s="18"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="1">
+        <v>-200.77</v>
+      </c>
+      <c r="X21" s="1">
+        <v>-75.260000000000005</v>
+      </c>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="1">
+        <v>-100.15</v>
+      </c>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="1">
+        <v>-280.88</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>-93.52</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>-249.63</v>
+      </c>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+    </row>
+    <row r="22" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G22" s="4">
         <v>0.68</v>
       </c>
-      <c r="G18" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="4">
+      <c r="H22" s="21"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="S22" s="18"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+    </row>
+    <row r="23" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="1">
+        <v>1586.27</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="1">
+        <v>1205.27</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1152.17</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1257.74</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="J23" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="1">
+        <v>1168.02</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="1">
+        <v>1663.55</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1748.46</v>
+      </c>
+      <c r="S23" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="T23" s="21"/>
+      <c r="U23" s="1">
+        <v>674.77</v>
+      </c>
+      <c r="V23" s="1">
+        <v>656.52</v>
+      </c>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="1">
+        <v>689.32</v>
+      </c>
+      <c r="AB23" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="1">
+        <v>365.91</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>944.74</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>658.86</v>
+      </c>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+    </row>
+    <row r="24" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="14">
+        <v>15148.88</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="14">
+        <v>11510.33</v>
+      </c>
+      <c r="F24" s="14">
+        <v>11003.22</v>
+      </c>
+      <c r="G24" s="14">
+        <v>12011.41</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="14">
+        <v>11154.59</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="14">
+        <v>15886.9</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>16697.79</v>
+      </c>
+      <c r="S24" s="18"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="14">
+        <v>6444.05</v>
+      </c>
+      <c r="V24" s="14">
+        <v>6269.77</v>
+      </c>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="14">
+        <v>6583.01</v>
+      </c>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="14">
+        <v>3494.44</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>9022.27</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>6292.11</v>
+      </c>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+    </row>
+    <row r="25" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="1">
+        <v>-30.14</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="1">
+        <v>-301.91000000000003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-571.83000000000004</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-120.56</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="1">
+        <v>-132.38</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="1">
+        <v>-176.94</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-132.34</v>
+      </c>
+      <c r="S25" s="18"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="1">
+        <v>-444.55</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-183.05</v>
+      </c>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="1">
+        <v>-104.6</v>
+      </c>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="1">
+        <v>-195.01</v>
+      </c>
+      <c r="AF25" s="22">
+        <v>-97.42</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>-260.02999999999997</v>
+      </c>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+    </row>
+    <row r="26" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="4">
         <v>0.69</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="4">
+      <c r="G26" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="4">
         <v>0.7</v>
       </c>
-      <c r="S18" s="19"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="W18" s="18"/>
-      <c r="X18" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="4">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="1">
-        <v>1523.82</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="1">
-        <v>1848.99</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1339.53</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="J19" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="1">
-        <v>1279.77</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1564.43</v>
-      </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="1">
-        <v>1729.1</v>
-      </c>
-      <c r="S19" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="T19" s="18"/>
-      <c r="U19" s="1">
-        <v>1085.0999999999999</v>
-      </c>
-      <c r="V19" s="1">
-        <v>686.26</v>
-      </c>
-      <c r="W19" s="18"/>
-      <c r="X19" s="1">
-        <v>850.86</v>
-      </c>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AB19" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="1">
-        <v>1064.54</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>555.48</v>
-      </c>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="1">
-        <v>554.84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="14">
-        <v>14552.48</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="14">
-        <v>17657.849999999999</v>
-      </c>
-      <c r="G20" s="14">
-        <v>12792.51</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="14">
-        <v>12221.8</v>
-      </c>
-      <c r="M20" s="14">
-        <v>14940.31</v>
-      </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="14">
-        <v>16512.900000000001</v>
-      </c>
-      <c r="S20" s="19"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="14">
-        <v>10362.700000000001</v>
-      </c>
-      <c r="V20" s="14">
-        <v>6553.78</v>
-      </c>
-      <c r="W20" s="18"/>
-      <c r="X20" s="14">
-        <v>8125.71</v>
-      </c>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="14">
-        <v>10166.36</v>
-      </c>
-      <c r="AG20" s="14">
-        <v>5304.83</v>
-      </c>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="14">
-        <v>5298.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="1">
-        <v>-69.17</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="1">
-        <v>-423.21</v>
-      </c>
-      <c r="G21" s="1">
-        <v>-146.68</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="1">
-        <v>-6.22</v>
-      </c>
-      <c r="M21" s="1">
-        <v>-55.84</v>
-      </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="1">
-        <v>-163.84</v>
-      </c>
-      <c r="S21" s="19"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="1">
-        <v>-543.48</v>
-      </c>
-      <c r="V21" s="1">
-        <v>-156.74</v>
-      </c>
-      <c r="W21" s="18"/>
-      <c r="X21" s="1">
-        <v>-210.62</v>
-      </c>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="1">
-        <v>-31.22</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>-244.43</v>
-      </c>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="1">
-        <v>-49.96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="4">
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="S26" s="18"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="4">
         <v>0.7</v>
       </c>
-      <c r="S22" s="19"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="W22" s="18"/>
-      <c r="X22" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="4">
+      <c r="V26" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AG26" s="4">
         <v>0.72</v>
       </c>
-      <c r="AG22" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="4">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="1">
-        <v>1751.54</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="1">
-        <v>1903.44</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1640.42</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="J23" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="1">
-        <v>964.45</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1587.95</v>
-      </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="1">
-        <v>2170.75</v>
-      </c>
-      <c r="S23" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="T23" s="18"/>
-      <c r="U23" s="1">
-        <v>1218.7</v>
-      </c>
-      <c r="V23" s="1">
-        <v>967.71</v>
-      </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="1">
-        <v>650.69000000000005</v>
-      </c>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AB23" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="1">
-        <v>477.83</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>1258.52</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>635.13</v>
-      </c>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-    </row>
-    <row r="24" spans="1:35" s="14" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14">
-        <v>16727.21</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="14">
-        <v>18177.849999999999</v>
-      </c>
-      <c r="G24" s="14">
-        <v>15666.01</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="14">
-        <v>9210.5</v>
-      </c>
-      <c r="M24" s="14">
-        <v>15164.92</v>
-      </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="14">
-        <v>20730.66</v>
-      </c>
-      <c r="S24" s="19"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="14">
-        <v>11638.58</v>
-      </c>
-      <c r="V24" s="14">
-        <v>9241.6299999999992</v>
-      </c>
-      <c r="W24" s="18"/>
-      <c r="X24" s="14">
-        <v>6214.09</v>
-      </c>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="14">
-        <v>4563.28</v>
-      </c>
-      <c r="AF24" s="14">
-        <v>12018.87</v>
-      </c>
-      <c r="AG24" s="14">
-        <v>6065.49</v>
-      </c>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-    </row>
-    <row r="25" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="1">
-        <v>-72.099999999999994</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="1">
-        <v>-442.27</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-152.84</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="1">
-        <v>-328.87</v>
-      </c>
-      <c r="M25" s="1">
-        <v>-200.6</v>
-      </c>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="1">
-        <v>-49.26</v>
-      </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="1">
-        <v>-509.63</v>
-      </c>
-      <c r="V25" s="1">
-        <v>-182.55</v>
-      </c>
-      <c r="W25" s="18"/>
-      <c r="X25" s="1">
-        <v>-219.53</v>
-      </c>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="1">
-        <v>-206.79</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="AG25" s="1">
-        <v>-293.63</v>
-      </c>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
-    </row>
-    <row r="26" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="S26" s="19"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="V26" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="W26" s="18"/>
-      <c r="X26" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>-32.520000000000003</v>
-      </c>
-      <c r="AG26" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="AI23:AI26"/>
+  <mergeCells count="51">
+    <mergeCell ref="AI19:AI26"/>
+    <mergeCell ref="AI3:AI6"/>
+    <mergeCell ref="AE3:AE18"/>
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="P3:P18"/>
+    <mergeCell ref="O7:O26"/>
+    <mergeCell ref="N19:N26"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="L7:L26"/>
+    <mergeCell ref="K15:K26"/>
+    <mergeCell ref="Y15:Y26"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="AB19:AB22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="AB23:AB26"/>
+    <mergeCell ref="X23:X26"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="V19:V22"/>
     <mergeCell ref="AH7:AH26"/>
-    <mergeCell ref="AF3:AF6"/>
-    <mergeCell ref="AE3:AE22"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="S11:S14"/>
+    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="S15:S18"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="AB7:AB10"/>
+    <mergeCell ref="V3:V14"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="AC3:AC26"/>
     <mergeCell ref="AD3:AD26"/>
-    <mergeCell ref="AC3:AC26"/>
-    <mergeCell ref="L7:L18"/>
-    <mergeCell ref="Z11:Z26"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="Y7:Y26"/>
-    <mergeCell ref="X7:X10"/>
-    <mergeCell ref="W15:W26"/>
-    <mergeCell ref="V3:V14"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="T3:T26"/>
+    <mergeCell ref="AB15:AB18"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="X3:X18"/>
+    <mergeCell ref="U3:U22"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T11:T26"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B26"/>
+    <mergeCell ref="D3:D26"/>
     <mergeCell ref="H3:H26"/>
-    <mergeCell ref="E3:E26"/>
-    <mergeCell ref="D3:D26"/>
-    <mergeCell ref="B3:B26"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="P3:P26"/>
-    <mergeCell ref="O11:O26"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="N3:N26"/>
-    <mergeCell ref="K19:K26"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="AB7:AB10"/>
-    <mergeCell ref="AB11:AB14"/>
-    <mergeCell ref="AB15:AB18"/>
-    <mergeCell ref="AB19:AB22"/>
-    <mergeCell ref="AB23:AB26"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="S11:S14"/>
-    <mergeCell ref="S15:S18"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="S23:S26"/>
     <mergeCell ref="J3:J6"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="J19:J22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
